--- a/ProcessedData/WOS_SciConf_20180531_CollectedData_YeEdited20181113.xlsx
+++ b/ProcessedData/WOS_SciConf_20180531_CollectedData_YeEdited20181113.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\Desktop\citing\citation\rgciting\ProcessedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9ECD91-7802-4775-80DF-0E4722B07E5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="3315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WOS_SciConf_20180531 (R1)" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11235" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11235" uniqueCount="1756">
   <si>
     <t>AID</t>
   </si>
@@ -5289,13 +5290,22 @@
   </si>
   <si>
     <t>https://www.tucson.ars.ag.gov/icrw/Proceedings/Shafique.pdf; https://www.academia.edu/17428435/Hyperspectral_remote_sensing_of_water_quality_parameters_for_large_rivers_in_the_Ohio_River_basin; https://pdfs.semanticscholar.org/3e85/2b31a55e8eb05f38adf221ae87957b27f09d.pdf?_ga=2.131099151.1629802494.1554768715-78151447.1553283385&amp;_gac=1.147055173.1554481847.CjwKCAjw-ZvlBRBbEiwANw9UWko-QJzHFyW26_EH6AOAhQU-P1-JVU1izICqXEgHmJQom6iOJDiukxoC3v0QAvD_BwE</t>
+  </si>
+  <si>
+    <t>SemanticScholar; SlideShare; NanoBioSciences; Academia.edu</t>
+  </si>
+  <si>
+    <t>https://adminmed.com/files/web/publications/2010-DDT-AdminPen-Yuzhakov.pdf;https://www.semanticscholar.org/paper/The-AdminPenTM-Microneedle-Device-for-Painless-%26-Yuzhakov/dd2d4a4555fef2bc163a092756cd160bd45527c3;https://www.slideshare.net/VadimYuzhakovPhDPMP/the-adminpen-microneedle-device-for-painless-convenient-drug-delivery;http://www.nanobiosciences.com/publications.htm; https://www.academia.edu/20018783/The_AdminPen_Microneedle_Device_for_Painless_and_Convenient_Drug_Delivery</t>
+  </si>
+  <si>
+    <t>Drug Delivery Technology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6214,32 +6224,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
+      <selection pane="bottomLeft" activeCell="G303" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" customWidth="1"/>
-    <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5546875" customWidth="1"/>
+    <col min="11" max="11" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" customWidth="1"/>
-    <col min="22" max="22" width="31.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6352,7 +6362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2">
         <v>183</v>
       </c>
@@ -6468,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3">
         <v>184</v>
       </c>
@@ -6584,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4">
         <v>187</v>
       </c>
@@ -6700,7 +6710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5">
         <v>227</v>
       </c>
@@ -6816,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6">
         <v>250</v>
       </c>
@@ -6932,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7">
         <v>338</v>
       </c>
@@ -7048,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7164,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9">
         <v>251</v>
       </c>
@@ -7280,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7396,7 +7406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7512,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12">
         <v>4</v>
       </c>
@@ -7628,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13">
         <v>5</v>
       </c>
@@ -7744,7 +7754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14">
         <v>6</v>
       </c>
@@ -7860,7 +7870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15">
         <v>7</v>
       </c>
@@ -7976,7 +7986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16">
         <v>253</v>
       </c>
@@ -8092,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" s="6" customFormat="1">
       <c r="A17" s="6">
         <v>9</v>
       </c>
@@ -8208,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18">
         <v>10</v>
       </c>
@@ -8324,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>11</v>
       </c>
@@ -8440,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>12</v>
       </c>
@@ -8556,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>13</v>
       </c>
@@ -8672,7 +8682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>14</v>
       </c>
@@ -8788,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>16</v>
       </c>
@@ -8904,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>17</v>
       </c>
@@ -9020,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>254</v>
       </c>
@@ -9136,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>18</v>
       </c>
@@ -9252,7 +9262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27">
         <v>19</v>
       </c>
@@ -9368,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28">
         <v>20</v>
       </c>
@@ -9484,7 +9494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29">
         <v>21</v>
       </c>
@@ -9600,7 +9610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30">
         <v>255</v>
       </c>
@@ -9716,7 +9726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31">
         <v>22</v>
       </c>
@@ -9832,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32">
         <v>23</v>
       </c>
@@ -9948,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33">
         <v>24</v>
       </c>
@@ -10064,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34">
         <v>25</v>
       </c>
@@ -10180,7 +10190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35">
         <v>26</v>
       </c>
@@ -10296,7 +10306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36">
         <v>27</v>
       </c>
@@ -10412,7 +10422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37">
         <v>28</v>
       </c>
@@ -10528,7 +10538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38">
         <v>29</v>
       </c>
@@ -10644,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39">
         <v>30</v>
       </c>
@@ -10760,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40">
         <v>31</v>
       </c>
@@ -10876,7 +10886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41">
         <v>32</v>
       </c>
@@ -10992,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42">
         <v>231</v>
       </c>
@@ -11108,7 +11118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43">
         <v>33</v>
       </c>
@@ -11128,7 +11138,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H43" t="s">
         <v>39</v>
@@ -11224,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44">
         <v>34</v>
       </c>
@@ -11340,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45">
         <v>256</v>
       </c>
@@ -11456,7 +11466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46">
         <v>257</v>
       </c>
@@ -11572,7 +11582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47">
         <v>258</v>
       </c>
@@ -11688,7 +11698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48">
         <v>259</v>
       </c>
@@ -11804,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38">
       <c r="A49">
         <v>35</v>
       </c>
@@ -11920,7 +11930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50">
         <v>36</v>
       </c>
@@ -12036,7 +12046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51">
         <v>37</v>
       </c>
@@ -12152,7 +12162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52">
         <v>260</v>
       </c>
@@ -12268,7 +12278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53">
         <v>38</v>
       </c>
@@ -12384,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54">
         <v>39</v>
       </c>
@@ -12500,7 +12510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55">
         <v>40</v>
       </c>
@@ -12616,7 +12626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56">
         <v>41</v>
       </c>
@@ -12636,7 +12646,7 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H56" t="s">
         <v>39</v>
@@ -12732,7 +12742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57">
         <v>42</v>
       </c>
@@ -12848,7 +12858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38">
       <c r="A58">
         <v>261</v>
       </c>
@@ -12964,7 +12974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38">
       <c r="A59">
         <v>43</v>
       </c>
@@ -13080,7 +13090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38">
       <c r="A60">
         <v>44</v>
       </c>
@@ -13196,7 +13206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38">
       <c r="A61">
         <v>45</v>
       </c>
@@ -13312,7 +13322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="A62">
         <v>46</v>
       </c>
@@ -13428,7 +13438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="A63">
         <v>47</v>
       </c>
@@ -13544,7 +13554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64">
         <v>263</v>
       </c>
@@ -13660,7 +13670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65">
         <v>48</v>
       </c>
@@ -13776,7 +13786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66">
         <v>49</v>
       </c>
@@ -13892,7 +13902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" s="6" customFormat="1">
       <c r="A67" s="6">
         <v>50</v>
       </c>
@@ -14008,7 +14018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" s="6" customFormat="1">
       <c r="A68" s="6">
         <v>264</v>
       </c>
@@ -14124,7 +14134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69">
         <v>265</v>
       </c>
@@ -14240,7 +14250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70">
         <v>51</v>
       </c>
@@ -14356,7 +14366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38">
       <c r="A71">
         <v>266</v>
       </c>
@@ -14472,7 +14482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38">
       <c r="A72">
         <v>54</v>
       </c>
@@ -14588,7 +14598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="A73">
         <v>52</v>
       </c>
@@ -14704,7 +14714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="A74">
         <v>317</v>
       </c>
@@ -14820,7 +14830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="A75">
         <v>53</v>
       </c>
@@ -14936,7 +14946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38">
       <c r="A76">
         <v>56</v>
       </c>
@@ -15052,7 +15062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38">
       <c r="A77">
         <v>57</v>
       </c>
@@ -15168,7 +15178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38">
       <c r="A78">
         <v>58</v>
       </c>
@@ -15284,7 +15294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38">
       <c r="A79">
         <v>267</v>
       </c>
@@ -15400,7 +15410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38">
       <c r="A80">
         <v>59</v>
       </c>
@@ -15516,7 +15526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38">
       <c r="A81">
         <v>60</v>
       </c>
@@ -15632,7 +15642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38">
       <c r="A82">
         <v>61</v>
       </c>
@@ -15748,7 +15758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38">
       <c r="A83">
         <v>55</v>
       </c>
@@ -15864,7 +15874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38">
       <c r="A84">
         <v>268</v>
       </c>
@@ -15980,7 +15990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38">
       <c r="A85">
         <v>269</v>
       </c>
@@ -16096,7 +16106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38">
       <c r="A86">
         <v>62</v>
       </c>
@@ -16212,7 +16222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38">
       <c r="A87">
         <v>270</v>
       </c>
@@ -16328,7 +16338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38">
       <c r="A88">
         <v>63</v>
       </c>
@@ -16444,7 +16454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38">
       <c r="A89">
         <v>64</v>
       </c>
@@ -16560,7 +16570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38">
       <c r="A90">
         <v>271</v>
       </c>
@@ -16676,7 +16686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38">
       <c r="A91">
         <v>65</v>
       </c>
@@ -16792,7 +16802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38">
       <c r="A92">
         <v>66</v>
       </c>
@@ -16908,7 +16918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38">
       <c r="A93">
         <v>195</v>
       </c>
@@ -17024,7 +17034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38">
       <c r="A94">
         <v>67</v>
       </c>
@@ -17140,7 +17150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38">
       <c r="A95">
         <v>68</v>
       </c>
@@ -17256,7 +17266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38">
       <c r="A96">
         <v>69</v>
       </c>
@@ -17372,7 +17382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38">
       <c r="A97">
         <v>70</v>
       </c>
@@ -17488,7 +17498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38">
       <c r="A98">
         <v>71</v>
       </c>
@@ -17604,7 +17614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38">
       <c r="A99">
         <v>72</v>
       </c>
@@ -17720,7 +17730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38">
       <c r="A100">
         <v>73</v>
       </c>
@@ -17836,7 +17846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38">
       <c r="A101">
         <v>272</v>
       </c>
@@ -17952,7 +17962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38">
       <c r="A102">
         <v>74</v>
       </c>
@@ -18068,7 +18078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38">
       <c r="A103">
         <v>75</v>
       </c>
@@ -18088,7 +18098,7 @@
         <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H103" t="s">
         <v>39</v>
@@ -18184,7 +18194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" ht="15">
       <c r="A104">
         <v>76</v>
       </c>
@@ -18300,7 +18310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38">
       <c r="A105">
         <v>77</v>
       </c>
@@ -18416,7 +18426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38">
       <c r="A106">
         <v>78</v>
       </c>
@@ -18532,7 +18542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38">
       <c r="A107">
         <v>79</v>
       </c>
@@ -18648,7 +18658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38">
       <c r="A108">
         <v>80</v>
       </c>
@@ -18764,7 +18774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38">
       <c r="A109" s="6">
         <v>81</v>
       </c>
@@ -18880,7 +18890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38">
       <c r="A110">
         <v>82</v>
       </c>
@@ -18996,7 +19006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38">
       <c r="A111">
         <v>83</v>
       </c>
@@ -19112,7 +19122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38">
       <c r="A112">
         <v>273</v>
       </c>
@@ -19228,7 +19238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38">
       <c r="A113">
         <v>84</v>
       </c>
@@ -19344,7 +19354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38">
       <c r="A114">
         <v>85</v>
       </c>
@@ -19460,7 +19470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38">
       <c r="A115">
         <v>86</v>
       </c>
@@ -19576,7 +19586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38">
       <c r="A116">
         <v>87</v>
       </c>
@@ -19692,7 +19702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38">
       <c r="A117">
         <v>88</v>
       </c>
@@ -19808,7 +19818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38">
       <c r="A118">
         <v>89</v>
       </c>
@@ -19924,7 +19934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38">
       <c r="A119">
         <v>90</v>
       </c>
@@ -20040,7 +20050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38">
       <c r="A120">
         <v>91</v>
       </c>
@@ -20156,7 +20166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38">
       <c r="A121">
         <v>92</v>
       </c>
@@ -20272,7 +20282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38">
       <c r="A122">
         <v>93</v>
       </c>
@@ -20388,7 +20398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38">
       <c r="A123">
         <v>94</v>
       </c>
@@ -20501,7 +20511,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38">
       <c r="A124">
         <v>95</v>
       </c>
@@ -20617,7 +20627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38">
       <c r="A125">
         <v>126</v>
       </c>
@@ -20733,7 +20743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38">
       <c r="A126">
         <v>96</v>
       </c>
@@ -20849,7 +20859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38">
       <c r="A127">
         <v>97</v>
       </c>
@@ -20965,7 +20975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38">
       <c r="A128">
         <v>98</v>
       </c>
@@ -21081,7 +21091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38">
       <c r="A129">
         <v>99</v>
       </c>
@@ -21197,7 +21207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38">
       <c r="A130">
         <v>100</v>
       </c>
@@ -21313,7 +21323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38">
       <c r="A131">
         <v>101</v>
       </c>
@@ -21429,7 +21439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38">
       <c r="A132">
         <v>102</v>
       </c>
@@ -21545,7 +21555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38">
       <c r="A133">
         <v>103</v>
       </c>
@@ -21661,7 +21671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38">
       <c r="A134">
         <v>104</v>
       </c>
@@ -21777,7 +21787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38">
       <c r="A135">
         <v>275</v>
       </c>
@@ -21893,7 +21903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38">
       <c r="A136">
         <v>105</v>
       </c>
@@ -22009,7 +22019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38">
       <c r="A137">
         <v>106</v>
       </c>
@@ -22125,7 +22135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38">
       <c r="A138">
         <v>276</v>
       </c>
@@ -22241,7 +22251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38">
       <c r="A139">
         <v>107</v>
       </c>
@@ -22357,7 +22367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38">
       <c r="A140">
         <v>108</v>
       </c>
@@ -22473,7 +22483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38">
       <c r="A141">
         <v>277</v>
       </c>
@@ -22589,7 +22599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38">
       <c r="A142">
         <v>109</v>
       </c>
@@ -22705,7 +22715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38">
       <c r="A143">
         <v>110</v>
       </c>
@@ -22821,7 +22831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38">
       <c r="A144">
         <v>111</v>
       </c>
@@ -22937,7 +22947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38">
       <c r="A145">
         <v>112</v>
       </c>
@@ -23053,7 +23063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38">
       <c r="A146">
         <v>278</v>
       </c>
@@ -23169,7 +23179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38">
       <c r="A147">
         <v>113</v>
       </c>
@@ -23285,7 +23295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38">
       <c r="A148">
         <v>114</v>
       </c>
@@ -23401,7 +23411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38">
       <c r="A149">
         <v>115</v>
       </c>
@@ -23517,7 +23527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38">
       <c r="A150">
         <v>116</v>
       </c>
@@ -23633,7 +23643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38">
       <c r="A151">
         <v>117</v>
       </c>
@@ -23749,7 +23759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38">
       <c r="A152">
         <v>118</v>
       </c>
@@ -23865,7 +23875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38">
       <c r="A153">
         <v>279</v>
       </c>
@@ -23981,7 +23991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38">
       <c r="A154">
         <v>119</v>
       </c>
@@ -24097,7 +24107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38">
       <c r="A155">
         <v>120</v>
       </c>
@@ -24213,7 +24223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38">
       <c r="A156">
         <v>280</v>
       </c>
@@ -24329,7 +24339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38">
       <c r="A157">
         <v>281</v>
       </c>
@@ -24445,7 +24455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38">
       <c r="A158">
         <v>121</v>
       </c>
@@ -24561,7 +24571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38">
       <c r="A159">
         <v>282</v>
       </c>
@@ -24677,7 +24687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38">
       <c r="A160">
         <v>122</v>
       </c>
@@ -24793,7 +24803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38">
       <c r="A161">
         <v>128</v>
       </c>
@@ -24909,7 +24919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38">
       <c r="A162">
         <v>124</v>
       </c>
@@ -25025,7 +25035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38">
       <c r="A163">
         <v>125</v>
       </c>
@@ -25141,7 +25151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38">
       <c r="A164">
         <v>127</v>
       </c>
@@ -25257,7 +25267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38">
       <c r="A165">
         <v>283</v>
       </c>
@@ -25373,7 +25383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38">
       <c r="A166">
         <v>284</v>
       </c>
@@ -25489,7 +25499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38">
       <c r="A167">
         <v>129</v>
       </c>
@@ -25605,7 +25615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38">
       <c r="A168">
         <v>130</v>
       </c>
@@ -25721,7 +25731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38">
       <c r="A169">
         <v>131</v>
       </c>
@@ -25837,7 +25847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38">
       <c r="A170">
         <v>132</v>
       </c>
@@ -25953,7 +25963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38">
       <c r="A171">
         <v>285</v>
       </c>
@@ -26069,7 +26079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38">
       <c r="A172">
         <v>133</v>
       </c>
@@ -26185,7 +26195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38">
       <c r="A173">
         <v>134</v>
       </c>
@@ -26301,7 +26311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38">
       <c r="A174">
         <v>135</v>
       </c>
@@ -26417,7 +26427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38">
       <c r="A175">
         <v>136</v>
       </c>
@@ -26533,7 +26543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38">
       <c r="A176">
         <v>286</v>
       </c>
@@ -26649,7 +26659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38">
       <c r="A177">
         <v>138</v>
       </c>
@@ -26765,7 +26775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38">
       <c r="A178">
         <v>137</v>
       </c>
@@ -26881,7 +26891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38">
       <c r="A179">
         <v>139</v>
       </c>
@@ -26997,7 +27007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38">
       <c r="A180" s="6">
         <v>218</v>
       </c>
@@ -27113,7 +27123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38">
       <c r="A181">
         <v>287</v>
       </c>
@@ -27229,7 +27239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38">
       <c r="A182">
         <v>140</v>
       </c>
@@ -27345,7 +27355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38">
       <c r="A183">
         <v>141</v>
       </c>
@@ -27461,7 +27471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38">
       <c r="A184">
         <v>142</v>
       </c>
@@ -27577,7 +27587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38">
       <c r="A185">
         <v>143</v>
       </c>
@@ -27693,7 +27703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38">
       <c r="A186">
         <v>288</v>
       </c>
@@ -27809,7 +27819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38">
       <c r="A187">
         <v>289</v>
       </c>
@@ -27925,7 +27935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38">
       <c r="A188">
         <v>144</v>
       </c>
@@ -28041,7 +28051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38">
       <c r="A189">
         <v>145</v>
       </c>
@@ -28157,7 +28167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38">
       <c r="A190">
         <v>290</v>
       </c>
@@ -28273,7 +28283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38">
       <c r="A191">
         <v>146</v>
       </c>
@@ -28389,7 +28399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38">
       <c r="A192">
         <v>147</v>
       </c>
@@ -28505,7 +28515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38">
       <c r="A193">
         <v>148</v>
       </c>
@@ -28621,7 +28631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38">
       <c r="A194" s="6">
         <v>149</v>
       </c>
@@ -28737,7 +28747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38">
       <c r="A195">
         <v>150</v>
       </c>
@@ -28853,7 +28863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38">
       <c r="A196">
         <v>151</v>
       </c>
@@ -28969,7 +28979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38">
       <c r="A197">
         <v>152</v>
       </c>
@@ -29085,7 +29095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38">
       <c r="A198" s="6">
         <v>153</v>
       </c>
@@ -29201,7 +29211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38">
       <c r="A199">
         <v>291</v>
       </c>
@@ -29317,7 +29327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38">
       <c r="A200">
         <v>292</v>
       </c>
@@ -29433,7 +29443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38">
       <c r="A201">
         <v>293</v>
       </c>
@@ -29549,7 +29559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38">
       <c r="A202">
         <v>154</v>
       </c>
@@ -29665,7 +29675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38">
       <c r="A203">
         <v>294</v>
       </c>
@@ -29781,7 +29791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38">
       <c r="A204">
         <v>155</v>
       </c>
@@ -29897,7 +29907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38">
       <c r="A205">
         <v>156</v>
       </c>
@@ -30013,7 +30023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38">
       <c r="A206">
         <v>295</v>
       </c>
@@ -30129,7 +30139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38">
       <c r="A207">
         <v>296</v>
       </c>
@@ -30245,7 +30255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38">
       <c r="A208">
         <v>157</v>
       </c>
@@ -30361,7 +30371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38">
       <c r="A209">
         <v>158</v>
       </c>
@@ -30477,7 +30487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:38">
       <c r="A210">
         <v>159</v>
       </c>
@@ -30497,7 +30507,7 @@
         <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H210" t="s">
         <v>39</v>
@@ -30593,7 +30603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:38">
       <c r="A211">
         <v>160</v>
       </c>
@@ -30709,7 +30719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:38">
       <c r="A212">
         <v>161</v>
       </c>
@@ -30825,7 +30835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:38">
       <c r="A213">
         <v>297</v>
       </c>
@@ -30941,7 +30951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38">
       <c r="A214">
         <v>298</v>
       </c>
@@ -30961,7 +30971,7 @@
         <v>38</v>
       </c>
       <c r="G214" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H214" t="s">
         <v>39</v>
@@ -31057,7 +31067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38">
       <c r="A215">
         <v>162</v>
       </c>
@@ -31173,7 +31183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38">
       <c r="A216">
         <v>299</v>
       </c>
@@ -31289,7 +31299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38">
       <c r="A217">
         <v>164</v>
       </c>
@@ -31309,7 +31319,7 @@
         <v>38</v>
       </c>
       <c r="G217" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H217" s="11" t="s">
         <v>39</v>
@@ -31405,7 +31415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:38">
       <c r="A218">
         <v>163</v>
       </c>
@@ -31425,7 +31435,7 @@
         <v>38</v>
       </c>
       <c r="G218" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H218" s="11" t="s">
         <v>39</v>
@@ -31521,7 +31531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:38">
       <c r="A219">
         <v>165</v>
       </c>
@@ -31637,7 +31647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:38">
       <c r="A220">
         <v>168</v>
       </c>
@@ -31657,7 +31667,7 @@
         <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H220" t="s">
         <v>39</v>
@@ -31753,7 +31763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:38">
       <c r="A221">
         <v>166</v>
       </c>
@@ -31869,7 +31879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38">
       <c r="A222">
         <v>300</v>
       </c>
@@ -31985,7 +31995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38">
       <c r="A223">
         <v>301</v>
       </c>
@@ -32101,7 +32111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38">
       <c r="A224">
         <v>167</v>
       </c>
@@ -32217,7 +32227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38">
       <c r="A225">
         <v>169</v>
       </c>
@@ -32333,7 +32343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:38">
       <c r="A226">
         <v>170</v>
       </c>
@@ -32449,7 +32459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:38">
       <c r="A227">
         <v>171</v>
       </c>
@@ -32565,7 +32575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:38">
       <c r="A228">
         <v>303</v>
       </c>
@@ -32681,7 +32691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:38">
       <c r="A229">
         <v>172</v>
       </c>
@@ -32797,7 +32807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:38">
       <c r="A230">
         <v>304</v>
       </c>
@@ -32913,7 +32923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:38">
       <c r="A231" s="6">
         <v>173</v>
       </c>
@@ -33029,7 +33039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:38">
       <c r="A232">
         <v>174</v>
       </c>
@@ -33145,7 +33155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:38">
       <c r="A233">
         <v>305</v>
       </c>
@@ -33165,7 +33175,7 @@
         <v>38</v>
       </c>
       <c r="G233" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H233" t="s">
         <v>39</v>
@@ -33261,7 +33271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:38">
       <c r="A234">
         <v>8</v>
       </c>
@@ -33374,7 +33384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:38">
       <c r="A235">
         <v>175</v>
       </c>
@@ -33490,7 +33500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38">
       <c r="A236">
         <v>306</v>
       </c>
@@ -33606,7 +33616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38">
       <c r="A237">
         <v>176</v>
       </c>
@@ -33722,7 +33732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38">
       <c r="A238">
         <v>177</v>
       </c>
@@ -33838,7 +33848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38">
       <c r="A239">
         <v>307</v>
       </c>
@@ -33954,7 +33964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38">
       <c r="A240">
         <v>308</v>
       </c>
@@ -33974,7 +33984,7 @@
         <v>38</v>
       </c>
       <c r="G240" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H240" t="s">
         <v>39</v>
@@ -34070,7 +34080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38">
       <c r="A241">
         <v>178</v>
       </c>
@@ -34186,7 +34196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38">
       <c r="A242">
         <v>179</v>
       </c>
@@ -34302,7 +34312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38">
       <c r="A243">
         <v>180</v>
       </c>
@@ -34418,7 +34428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38">
       <c r="A244">
         <v>181</v>
       </c>
@@ -34534,7 +34544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38">
       <c r="A245" s="6">
         <v>309</v>
       </c>
@@ -34650,7 +34660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38">
       <c r="A246">
         <v>182</v>
       </c>
@@ -34766,7 +34776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38">
       <c r="A247">
         <v>310</v>
       </c>
@@ -34882,7 +34892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38">
       <c r="A248">
         <v>188</v>
       </c>
@@ -34998,7 +35008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38">
       <c r="A249">
         <v>189</v>
       </c>
@@ -35114,7 +35124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38">
       <c r="A250">
         <v>190</v>
       </c>
@@ -35134,7 +35144,7 @@
         <v>38</v>
       </c>
       <c r="G250" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H250" s="11" t="s">
         <v>39</v>
@@ -35230,7 +35240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38">
       <c r="A251">
         <v>191</v>
       </c>
@@ -35250,7 +35260,7 @@
         <v>38</v>
       </c>
       <c r="G251" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H251" s="11" t="s">
         <v>39</v>
@@ -35346,7 +35356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38">
       <c r="A252">
         <v>311</v>
       </c>
@@ -35366,7 +35376,7 @@
         <v>38</v>
       </c>
       <c r="G252" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H252" s="11" t="s">
         <v>39</v>
@@ -35462,7 +35472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38">
       <c r="A253">
         <v>192</v>
       </c>
@@ -35575,7 +35585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38">
       <c r="A254">
         <v>312</v>
       </c>
@@ -35691,7 +35701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38">
       <c r="A255" s="6">
         <v>313</v>
       </c>
@@ -35807,7 +35817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38">
       <c r="A256">
         <v>193</v>
       </c>
@@ -35923,7 +35933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38">
       <c r="A257">
         <v>314</v>
       </c>
@@ -35943,7 +35953,7 @@
         <v>38</v>
       </c>
       <c r="G257" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H257" t="s">
         <v>39</v>
@@ -36039,7 +36049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38">
       <c r="A258">
         <v>315</v>
       </c>
@@ -36155,7 +36165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38">
       <c r="A259">
         <v>194</v>
       </c>
@@ -36271,7 +36281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:38" ht="15.6">
       <c r="A260">
         <v>196</v>
       </c>
@@ -36387,7 +36397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:38">
       <c r="A261">
         <v>197</v>
       </c>
@@ -36503,7 +36513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:38">
       <c r="A262">
         <v>198</v>
       </c>
@@ -36619,7 +36629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:38">
       <c r="A263">
         <v>199</v>
       </c>
@@ -36735,7 +36745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:38">
       <c r="A264">
         <v>200</v>
       </c>
@@ -36851,7 +36861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:38">
       <c r="A265">
         <v>201</v>
       </c>
@@ -36964,7 +36974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:38">
       <c r="A266">
         <v>316</v>
       </c>
@@ -37080,7 +37090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:38">
       <c r="A267">
         <v>202</v>
       </c>
@@ -37196,7 +37206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:38">
       <c r="A268">
         <v>203</v>
       </c>
@@ -37312,7 +37322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:38">
       <c r="A269">
         <v>204</v>
       </c>
@@ -37428,7 +37438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:38">
       <c r="A270">
         <v>318</v>
       </c>
@@ -37544,7 +37554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:38">
       <c r="A271">
         <v>205</v>
       </c>
@@ -37660,7 +37670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:38">
       <c r="A272">
         <v>320</v>
       </c>
@@ -37776,7 +37786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:38">
       <c r="A273">
         <v>321</v>
       </c>
@@ -37892,7 +37902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:38" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:38">
       <c r="A274">
         <v>206</v>
       </c>
@@ -38008,7 +38018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:38">
       <c r="A275">
         <v>322</v>
       </c>
@@ -38124,7 +38134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:38">
       <c r="A276">
         <v>207</v>
       </c>
@@ -38240,7 +38250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:38">
       <c r="A277">
         <v>208</v>
       </c>
@@ -38356,7 +38366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:38">
       <c r="A278">
         <v>323</v>
       </c>
@@ -38472,7 +38482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:38">
       <c r="A279">
         <v>209</v>
       </c>
@@ -38588,7 +38598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:38">
       <c r="A280">
         <v>210</v>
       </c>
@@ -38704,7 +38714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:38">
       <c r="A281" s="6">
         <v>211</v>
       </c>
@@ -38820,7 +38830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:38">
       <c r="A282">
         <v>324</v>
       </c>
@@ -38936,7 +38946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:38">
       <c r="A283">
         <v>212</v>
       </c>
@@ -39052,7 +39062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:38">
       <c r="A284">
         <v>213</v>
       </c>
@@ -39168,7 +39178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:38">
       <c r="A285">
         <v>215</v>
       </c>
@@ -39284,7 +39294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:38">
       <c r="A286">
         <v>214</v>
       </c>
@@ -39400,7 +39410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:38">
       <c r="A287">
         <v>216</v>
       </c>
@@ -39420,7 +39430,7 @@
         <v>38</v>
       </c>
       <c r="G287" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H287" t="s">
         <v>39</v>
@@ -39516,7 +39526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:38">
       <c r="A288">
         <v>217</v>
       </c>
@@ -39632,7 +39642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:38">
       <c r="A289">
         <v>219</v>
       </c>
@@ -39748,7 +39758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:38">
       <c r="A290">
         <v>220</v>
       </c>
@@ -39864,7 +39874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:38">
       <c r="A291">
         <v>221</v>
       </c>
@@ -39980,7 +39990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:38">
       <c r="A292">
         <v>222</v>
       </c>
@@ -40096,7 +40106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:38">
       <c r="A293">
         <v>223</v>
       </c>
@@ -40212,7 +40222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:38">
       <c r="A294">
         <v>325</v>
       </c>
@@ -40328,7 +40338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:38">
       <c r="A295" s="6">
         <v>224</v>
       </c>
@@ -40444,7 +40454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:38">
       <c r="A296">
         <v>327</v>
       </c>
@@ -40560,7 +40570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:38">
       <c r="A297">
         <v>328</v>
       </c>
@@ -40676,7 +40686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:38">
       <c r="A298">
         <v>225</v>
       </c>
@@ -40792,7 +40802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:38">
       <c r="A299" s="6">
         <v>329</v>
       </c>
@@ -40908,7 +40918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:38">
       <c r="A300">
         <v>226</v>
       </c>
@@ -41024,7 +41034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:38">
       <c r="A301">
         <v>330</v>
       </c>
@@ -41140,7 +41150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:38">
       <c r="A302">
         <v>229</v>
       </c>
@@ -41256,7 +41266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:38">
       <c r="A303">
         <v>230</v>
       </c>
@@ -41276,7 +41286,7 @@
         <v>38</v>
       </c>
       <c r="G303" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H303" t="s">
         <v>39</v>
@@ -41372,7 +41382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:38">
       <c r="A304">
         <v>232</v>
       </c>
@@ -41488,7 +41498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:38">
       <c r="A305">
         <v>233</v>
       </c>
@@ -41604,7 +41614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:38">
       <c r="A306">
         <v>234</v>
       </c>
@@ -41720,7 +41730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:38">
       <c r="A307">
         <v>235</v>
       </c>
@@ -41836,7 +41846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:38">
       <c r="A308">
         <v>236</v>
       </c>
@@ -41952,7 +41962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:38">
       <c r="A309">
         <v>237</v>
       </c>
@@ -42068,7 +42078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:38">
       <c r="A310">
         <v>332</v>
       </c>
@@ -42184,7 +42194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:38">
       <c r="A311">
         <v>238</v>
       </c>
@@ -42300,7 +42310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:38">
       <c r="A312">
         <v>239</v>
       </c>
@@ -42416,7 +42426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:38" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:38" ht="20.399999999999999">
       <c r="A313" s="6">
         <v>240</v>
       </c>
@@ -42532,7 +42542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:38">
       <c r="A314">
         <v>242</v>
       </c>
@@ -42648,7 +42658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:38">
       <c r="A315">
         <v>243</v>
       </c>
@@ -42764,7 +42774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:38">
       <c r="A316">
         <v>333</v>
       </c>
@@ -42880,7 +42890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:38">
       <c r="A317">
         <v>244</v>
       </c>
@@ -42996,7 +43006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:38">
       <c r="A318">
         <v>245</v>
       </c>
@@ -43112,7 +43122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:38">
       <c r="A319">
         <v>246</v>
       </c>
@@ -43228,7 +43238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:38">
       <c r="A320">
         <v>334</v>
       </c>
@@ -43344,7 +43354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:38">
       <c r="A321">
         <v>247</v>
       </c>
@@ -43460,7 +43470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:38">
       <c r="A322">
         <v>335</v>
       </c>
@@ -43576,7 +43586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:38">
       <c r="A323">
         <v>248</v>
       </c>
@@ -43692,7 +43702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:38">
       <c r="A324">
         <v>228</v>
       </c>
@@ -43700,43 +43710,43 @@
         <v>1287</v>
       </c>
       <c r="C324" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D324" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E324" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F324" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G324" t="s">
-        <v>45</v>
+        <v>1755</v>
       </c>
       <c r="H324" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I324" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J324" t="s">
-        <v>45</v>
-      </c>
-      <c r="K324" t="s">
-        <v>45</v>
+        <v>1753</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>1754</v>
       </c>
       <c r="L324" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M324" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N324" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O324" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P324" t="s">
         <v>45</v>
@@ -43808,7 +43818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:38">
       <c r="A325">
         <v>15</v>
       </c>
@@ -43924,7 +43934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:38">
       <c r="A326">
         <v>249</v>
       </c>
@@ -44040,7 +44050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:38">
       <c r="A327">
         <v>336</v>
       </c>
@@ -44156,7 +44166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:38">
       <c r="A328">
         <v>337</v>
       </c>
@@ -44272,7 +44282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:38">
       <c r="A329">
         <v>123</v>
       </c>
@@ -44388,7 +44398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:38">
       <c r="A330">
         <v>185</v>
       </c>
@@ -44504,7 +44514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:38">
       <c r="A331">
         <v>186</v>
       </c>
@@ -44620,7 +44630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:38">
       <c r="A332">
         <v>241</v>
       </c>
@@ -44735,80 +44745,81 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K97" r:id="rId1"/>
-    <hyperlink ref="K103" r:id="rId2"/>
-    <hyperlink ref="G105" r:id="rId3" display="http://www.oalib.com/journal/6879/1"/>
-    <hyperlink ref="G108" r:id="rId4" display="https://link.springer.com/book/10.1007/978-1-4471-4072-6"/>
-    <hyperlink ref="K120" r:id="rId5" display="http://citeseerx.ist.psu.edu/viewdoc/summary?doi=10.1.1.101.9163; "/>
-    <hyperlink ref="G121" r:id="rId6" display="https://leitir.is/primo_library/libweb/action/dlDisplay.do?vid=GEGNIR&amp;docId=ICE01_PRIMO000599234"/>
-    <hyperlink ref="K121" r:id="rId7"/>
-    <hyperlink ref="I129" r:id="rId8" display="http://repository.unhas.ac.id/"/>
-    <hyperlink ref="K130" r:id="rId9" display="https://www.semanticscholar.org/paper/An-analysis-of-data-characteristics-that-affect-RISH-COM/10fd83b0a0ee37b2161e0e98135470c230d513b9"/>
-    <hyperlink ref="K131" r:id="rId10"/>
-    <hyperlink ref="G132" r:id="rId11" tooltip="Current Pharmacology Reports" display="https://link.springer.com/journal/40495"/>
-    <hyperlink ref="G135" r:id="rId12" tooltip="European Radiology" display="https://link.springer.com/journal/330"/>
-    <hyperlink ref="L137" r:id="rId13"/>
-    <hyperlink ref="G143" r:id="rId14" display="https://link.springer.com/conference/icics"/>
-    <hyperlink ref="G146" r:id="rId15" tooltip="Conference Website" display="http://chi2012.acm.org/"/>
-    <hyperlink ref="L146" r:id="rId16" display="https://doi.org/10.1145/2207676.2208640"/>
-    <hyperlink ref="L148" r:id="rId17"/>
-    <hyperlink ref="L160" r:id="rId18"/>
-    <hyperlink ref="J160" r:id="rId19"/>
-    <hyperlink ref="L170" r:id="rId20" display="https://doi.org/10.1177%2F1555412010364981"/>
-    <hyperlink ref="L186" r:id="rId21" display="https://doi.org/10.1109/CONIELECOMP.2012.6189918"/>
-    <hyperlink ref="K197" r:id="rId22" display="https://pdfs.semanticscholar.org/cec0/ad7b0fc2d4d6ba45c6212d36217df1ff2bf2.pdf;http://citeseerx.ist.psu.edu/viewdoc/summary?doi=10.1.1.55.9568"/>
-    <hyperlink ref="L200" r:id="rId23" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="G208" r:id="rId24" display="https://app.dimensions.ai/discover/publication?and_facet_journal=jour.1083795"/>
-    <hyperlink ref="K208" r:id="rId25"/>
-    <hyperlink ref="L212" r:id="rId26"/>
-    <hyperlink ref="G212" r:id="rId27" tooltip="link to all content in Journal of Medical Imaging and Health Informatics" display="https://www.ingentaconnect.com/content/asp/jmihi"/>
-    <hyperlink ref="K213" r:id="rId28"/>
-    <hyperlink ref="G213" r:id="rId29" display="https://ieeexplore.ieee.org/xpl/mostRecentIssue.jsp?punumber=6679357"/>
-    <hyperlink ref="G219" r:id="rId30" tooltip="Waste and Biomass Valorization" display="https://link.springer.com/journal/12649"/>
-    <hyperlink ref="L222" r:id="rId31" display="https://doi.org/10.1109/MCOM.2010.5673086"/>
-    <hyperlink ref="G222" r:id="rId32" display="https://ieeexplore.ieee.org/xpl/RecentIssue.jsp?punumber=35"/>
-    <hyperlink ref="L223" r:id="rId33" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="G228" r:id="rId34" display="https://library.seg.org/doi/book/10.1190/SEGEAB.19"/>
-    <hyperlink ref="L228" r:id="rId35" tooltip="Opens new window"/>
-    <hyperlink ref="L234" r:id="rId36"/>
-    <hyperlink ref="K237" r:id="rId37" display="http://cdn.iiit.ac.in/cdn/speech.iiit.ac.in/svlpubs/conference/Kishore2002a.pdf"/>
-    <hyperlink ref="G253" r:id="rId38" display="https://findit.dtu.dk/en/journal?ignore_search=%E2%9C%93&amp;issn%5B%5D=19422601&amp;key=19422601%7C000088%7C000004%7C000003%7C000000"/>
-    <hyperlink ref="J257" r:id="rId39"/>
-    <hyperlink ref="L258" r:id="rId40" display="https://doi.org/10.1177%2F1528083714532113"/>
-    <hyperlink ref="L269" r:id="rId41" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="G272" r:id="rId42" display="https://ukm.pure.elsevier.com/en/publications/heuristic-optimization-techniques-to-determine-optimal-capacitor-"/>
-    <hyperlink ref="L282" r:id="rId43"/>
-    <hyperlink ref="K283" r:id="rId44"/>
-    <hyperlink ref="L284" r:id="rId45"/>
-    <hyperlink ref="L286" r:id="rId46" display="https://doi.org/10.1109/SECON.2009.5174082"/>
-    <hyperlink ref="L291" r:id="rId47" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="L293" r:id="rId48" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="K297" r:id="rId49"/>
-    <hyperlink ref="L300" r:id="rId50" display="https://doi.org/10.1109/NUICONE.2015.7449639"/>
-    <hyperlink ref="G300" r:id="rId51" display="https://ieeexplore.ieee.org/xpl/mostRecentIssue.jsp?punumber=7446021"/>
-    <hyperlink ref="L301" r:id="rId52" display="https://doi.org/10.1109/IECON.2013.6699111"/>
-    <hyperlink ref="G302" r:id="rId53" tooltip="Conference Website" display="https://www.acm.org/conferences/sac/sac2015/"/>
-    <hyperlink ref="L302" r:id="rId54" display="https://doi.org/10.1145/2695664.2695719"/>
-    <hyperlink ref="L304" r:id="rId55" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="G307" r:id="rId56" display="http://journaldatabase.info/journal/issn2229-6093"/>
-    <hyperlink ref="L311" r:id="rId57" display="https://doi.org/10.1109/WHISPERS.2014.8077520"/>
-    <hyperlink ref="L312" r:id="rId58" display="https://dx.doi.org/10.1016%2Fj.trstmh.2010.09.007"/>
-    <hyperlink ref="L316" r:id="rId59" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="L318" r:id="rId60" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="G320" r:id="rId61" display="https://www.igi-global.com/book/big-data-management-technologies-applications/77404"/>
-    <hyperlink ref="G321" r:id="rId62" display="https://link.springer.com/referencework/10.1007/978-94-007-6064-6"/>
-    <hyperlink ref="G322" r:id="rId63" display="https://ieeexplore.ieee.org/xpl/mostRecentIssue.jsp?punumber=9626"/>
-    <hyperlink ref="L322" r:id="rId64" display="https://doi.org/10.1109/ACSSC.2004.1399438"/>
-    <hyperlink ref="J323" r:id="rId65"/>
-    <hyperlink ref="L326" r:id="rId66" display="https://doi.org/10.1145/2030112.2030127"/>
-    <hyperlink ref="K255" r:id="rId67"/>
-    <hyperlink ref="J299" r:id="rId68"/>
-    <hyperlink ref="K299" r:id="rId69"/>
-    <hyperlink ref="K145" r:id="rId70"/>
-    <hyperlink ref="K84" r:id="rId71"/>
-    <hyperlink ref="K266" r:id="rId72" display="https://www.tucson.ars.ag.gov/icrw/Proceedings/Shafique.pdf;"/>
+    <hyperlink ref="K97" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K103" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G105" r:id="rId3" display="http://www.oalib.com/journal/6879/1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G108" r:id="rId4" display="https://link.springer.com/book/10.1007/978-1-4471-4072-6" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K120" r:id="rId5" display="http://citeseerx.ist.psu.edu/viewdoc/summary?doi=10.1.1.101.9163; " xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G121" r:id="rId6" display="https://leitir.is/primo_library/libweb/action/dlDisplay.do?vid=GEGNIR&amp;docId=ICE01_PRIMO000599234" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K121" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I129" r:id="rId8" display="http://repository.unhas.ac.id/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K130" r:id="rId9" display="https://www.semanticscholar.org/paper/An-analysis-of-data-characteristics-that-affect-RISH-COM/10fd83b0a0ee37b2161e0e98135470c230d513b9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K131" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G132" r:id="rId11" tooltip="Current Pharmacology Reports" display="https://link.springer.com/journal/40495" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G135" r:id="rId12" tooltip="European Radiology" display="https://link.springer.com/journal/330" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L137" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G143" r:id="rId14" display="https://link.springer.com/conference/icics" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G146" r:id="rId15" tooltip="Conference Website" display="http://chi2012.acm.org/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L146" r:id="rId16" display="https://doi.org/10.1145/2207676.2208640" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L148" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L160" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J160" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L170" r:id="rId20" display="https://doi.org/10.1177%2F1555412010364981" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L186" r:id="rId21" display="https://doi.org/10.1109/CONIELECOMP.2012.6189918" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K197" r:id="rId22" display="https://pdfs.semanticscholar.org/cec0/ad7b0fc2d4d6ba45c6212d36217df1ff2bf2.pdf;http://citeseerx.ist.psu.edu/viewdoc/summary?doi=10.1.1.55.9568" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L200" r:id="rId23" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G208" r:id="rId24" display="https://app.dimensions.ai/discover/publication?and_facet_journal=jour.1083795" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K208" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L212" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G212" r:id="rId27" tooltip="link to all content in Journal of Medical Imaging and Health Informatics" display="https://www.ingentaconnect.com/content/asp/jmihi" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K213" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G213" r:id="rId29" display="https://ieeexplore.ieee.org/xpl/mostRecentIssue.jsp?punumber=6679357" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G219" r:id="rId30" tooltip="Waste and Biomass Valorization" display="https://link.springer.com/journal/12649" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L222" r:id="rId31" display="https://doi.org/10.1109/MCOM.2010.5673086" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G222" r:id="rId32" display="https://ieeexplore.ieee.org/xpl/RecentIssue.jsp?punumber=35" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L223" r:id="rId33" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G228" r:id="rId34" display="https://library.seg.org/doi/book/10.1190/SEGEAB.19" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L228" r:id="rId35" tooltip="Opens new window" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L234" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K237" r:id="rId37" display="http://cdn.iiit.ac.in/cdn/speech.iiit.ac.in/svlpubs/conference/Kishore2002a.pdf" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G253" r:id="rId38" display="https://findit.dtu.dk/en/journal?ignore_search=%E2%9C%93&amp;issn%5B%5D=19422601&amp;key=19422601%7C000088%7C000004%7C000003%7C000000" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J257" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L258" r:id="rId40" display="https://doi.org/10.1177%2F1528083714532113" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L269" r:id="rId41" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G272" r:id="rId42" display="https://ukm.pure.elsevier.com/en/publications/heuristic-optimization-techniques-to-determine-optimal-capacitor-" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L282" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K283" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L284" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L286" r:id="rId46" display="https://doi.org/10.1109/SECON.2009.5174082" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L291" r:id="rId47" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L293" r:id="rId48" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K297" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L300" r:id="rId50" display="https://doi.org/10.1109/NUICONE.2015.7449639" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G300" r:id="rId51" display="https://ieeexplore.ieee.org/xpl/mostRecentIssue.jsp?punumber=7446021" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L301" r:id="rId52" display="https://doi.org/10.1109/IECON.2013.6699111" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G302" r:id="rId53" tooltip="Conference Website" display="https://www.acm.org/conferences/sac/sac2015/" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L302" r:id="rId54" display="https://doi.org/10.1145/2695664.2695719" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L304" r:id="rId55" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G307" r:id="rId56" display="http://journaldatabase.info/journal/issn2229-6093" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L311" r:id="rId57" display="https://doi.org/10.1109/WHISPERS.2014.8077520" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L312" r:id="rId58" display="https://dx.doi.org/10.1016%2Fj.trstmh.2010.09.007" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L316" r:id="rId59" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L318" r:id="rId60" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G320" r:id="rId61" display="https://www.igi-global.com/book/big-data-management-technologies-applications/77404" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G321" r:id="rId62" display="https://link.springer.com/referencework/10.1007/978-94-007-6064-6" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G322" r:id="rId63" display="https://ieeexplore.ieee.org/xpl/mostRecentIssue.jsp?punumber=9626" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L322" r:id="rId64" display="https://doi.org/10.1109/ACSSC.2004.1399438" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J323" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="L326" r:id="rId66" display="https://doi.org/10.1145/2030112.2030127" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K255" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J299" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K299" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K145" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K84" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K266" r:id="rId72" display="https://www.tucson.ars.ag.gov/icrw/Proceedings/Shafique.pdf;" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K324" r:id="rId73" display="https://www.semanticscholar.org/paper/The-AdminPenTM-Microneedle-Device-for-Painless-%26-Yuzhakov/dd2d4a4555fef2bc163a092756cd160bd45527c3;https://www.slideshare.net/VadimYuzhakovPhDPMP/the-adminpen-microneedle-device-for-painless-convenient-drug-delivery" xr:uid="{4F72D84A-FCF0-494C-A12C-419A1B9AC8C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId73"/>
+  <pageSetup orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>